--- a/Examples/somaticGermline_TCRBOA6/lohMutations.xlsx
+++ b/Examples/somaticGermline_TCRBOA6/lohMutations.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t xml:space="preserve">Gene.refGene</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">gnomAD_exome_NFE</t>
   </si>
   <si>
-    <t xml:space="preserve">CADD13_PHRED</t>
+    <t xml:space="preserve">CADD_phred</t>
   </si>
   <si>
     <t xml:space="preserve">condel.label</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">CLINSIG.SnpEff</t>
   </si>
   <si>
-    <t xml:space="preserve">cosmic84_coding</t>
+    <t xml:space="preserve">cosmic86_coding</t>
   </si>
   <si>
     <t xml:space="preserve">SLC22A13</t>
@@ -92,6 +92,9 @@
     <t xml:space="preserve">.</t>
   </si>
   <si>
+    <t xml:space="preserve">3.410</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
@@ -119,9 +122,36 @@
     <t xml:space="preserve">33|43</t>
   </si>
   <si>
+    <t xml:space="preserve">13.20</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">FILIP1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filamin A interacting protein 1 like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.Lys183Glu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.84%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.45%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43|77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47|55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">NFKBIZ</t>
   </si>
   <si>
@@ -143,6 +173,9 @@
     <t xml:space="preserve">14|18</t>
   </si>
   <si>
+    <t xml:space="preserve">27.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSG1</t>
   </si>
   <si>
@@ -164,25 +197,7 @@
     <t xml:space="preserve">67|85</t>
   </si>
   <si>
-    <t xml:space="preserve">ABTB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankyrin repeat and BTB domain containing 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Arg452Gln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.84%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17|31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37|41</t>
+    <t xml:space="preserve">23.3</t>
   </si>
   <si>
     <t xml:space="preserve">TNKS1BP1</t>
@@ -206,6 +221,9 @@
     <t xml:space="preserve">52|69</t>
   </si>
   <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID=COSM1229944;OCCURENCE=1(large_intestine)</t>
   </si>
   <si>
@@ -224,12 +242,15 @@
     <t xml:space="preserve">75.86%</t>
   </si>
   <si>
-    <t xml:space="preserve">84|161</t>
+    <t xml:space="preserve">84|162</t>
   </si>
   <si>
     <t xml:space="preserve">88|116</t>
   </si>
   <si>
+    <t xml:space="preserve">6.974</t>
+  </si>
+  <si>
     <t xml:space="preserve">LTBP3</t>
   </si>
   <si>
@@ -251,49 +272,28 @@
     <t xml:space="preserve">58|70</t>
   </si>
   <si>
-    <t xml:space="preserve">ACY3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aminoacylase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Thr277Arg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.98%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99|186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85|109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYO7A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">myosin VIIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Val411Ala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.33%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.59%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81|196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78|99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uncertain significance</t>
+    <t xml:space="preserve">12.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF705E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc finger protein 705E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">43.15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63|146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96|125</t>
   </si>
   <si>
     <t xml:space="preserve">ALKBH8</t>
@@ -317,6 +317,9 @@
     <t xml:space="preserve">46|52</t>
   </si>
   <si>
+    <t xml:space="preserve">24.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANKK1</t>
   </si>
   <si>
@@ -338,25 +341,25 @@
     <t xml:space="preserve">36|46</t>
   </si>
   <si>
-    <t xml:space="preserve">NECTIN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nectin cell adhesion molecule 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.Gly480Ser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.13%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88|196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94|125</t>
+    <t xml:space="preserve">14.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISG20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interferon stimulated exonuclease gene 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.03%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64|123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50|61</t>
   </si>
   <si>
     <t xml:space="preserve">ZNF521</t>
@@ -380,6 +383,9 @@
     <t xml:space="preserve">103|121</t>
   </si>
   <si>
+    <t xml:space="preserve">21.9</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID=COSM6830919;OCCURENCE=1(large_intestine)</t>
   </si>
   <si>
@@ -404,6 +410,9 @@
     <t xml:space="preserve">29|37</t>
   </si>
   <si>
+    <t xml:space="preserve">23.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRWD1</t>
   </si>
   <si>
@@ -423,6 +432,33 @@
   </si>
   <si>
     <t xml:space="preserve">30|34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9orf147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome 9 open reading frame 147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frameshift deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6|9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16|16</t>
   </si>
 </sst>
 </file>
@@ -847,41 +883,41 @@
       <c r="M2" t="n">
         <v>0.00008065</v>
       </c>
-      <c r="N2" t="n">
-        <v>3.41</v>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -898,41 +934,41 @@
       <c r="M3" t="n">
         <v>0.00002699</v>
       </c>
-      <c r="N3" t="n">
-        <v>13.2</v>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -947,43 +983,43 @@
         <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27.2</v>
+        <v>0.0008</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -998,43 +1034,43 @@
         <v>25</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23.3</v>
+        <v>0.0009</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1049,43 +1085,43 @@
         <v>25</v>
       </c>
       <c r="M6" t="n">
-        <v>0.000009069</v>
-      </c>
-      <c r="N6" t="n">
-        <v>29.3</v>
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,43 +1138,43 @@
       <c r="M7" t="n">
         <v>0.0002</v>
       </c>
-      <c r="N7" t="n">
-        <v>34</v>
+      <c r="N7" t="s">
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1155,41 +1191,41 @@
       <c r="M8" t="n">
         <v>0.00006266</v>
       </c>
-      <c r="N8" t="n">
-        <v>6.974</v>
+      <c r="N8" t="s">
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1204,41 +1240,41 @@
         <v>25</v>
       </c>
       <c r="M9"/>
-      <c r="N9" t="n">
-        <v>12.94</v>
+      <c r="N9" t="s">
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1252,44 +1288,38 @@
       <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.000008957</v>
-      </c>
-      <c r="N10" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1304,43 +1334,43 @@
         <v>25</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00005438</v>
-      </c>
-      <c r="N11" t="n">
-        <v>26</v>
+        <v>0.00001796</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="Q11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1355,43 +1385,43 @@
         <v>25</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00001796</v>
-      </c>
-      <c r="N12" t="n">
-        <v>24.5</v>
+        <v>0.000008958</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1405,44 +1435,38 @@
       <c r="L13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.000008958</v>
-      </c>
-      <c r="N13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
-      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1457,43 +1481,45 @@
         <v>25</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00009873</v>
-      </c>
-      <c r="N14" t="n">
-        <v>19.05</v>
+        <v>0.00001796</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14"/>
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1508,45 +1534,43 @@
         <v>25</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00001796</v>
-      </c>
-      <c r="N15" t="n">
-        <v>21.9</v>
+        <v>0.00003588</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>122</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1561,43 +1585,43 @@
         <v>25</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00003588</v>
-      </c>
-      <c r="N16" t="n">
-        <v>23.4</v>
+        <v>0.00002704</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1611,17 +1635,11 @@
       <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" t="n">
-        <v>0.00002704</v>
-      </c>
-      <c r="N17" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="O17" t="s">
-        <v>35</v>
-      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q17"/>
     </row>
